--- a/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01519027636814067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.002493594761189147</v>
+        <v>0.002493594761189148</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02759827939457123</v>
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03160920697564252</v>
+        <v>0.03175819503812014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003507478513755706</v>
+        <v>0.00344084327567963</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01169135504544648</v>
+        <v>0.01168367848051474</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04424106871396731</v>
+        <v>0.04748403568091898</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01320435044457259</v>
+        <v>0.01350961268101098</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01331898702998125</v>
+        <v>0.01380357013247421</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007520350356668213</v>
+        <v>0.007321548304167161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04235505581658032</v>
+        <v>0.04372246586145321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0120098836365582</v>
+        <v>0.01243398947440294</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007972519844991054</v>
+        <v>0.007638182905101394</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01798762071453117</v>
+        <v>0.02034820308145316</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08906224019945232</v>
+        <v>0.09016964294240695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03951518161188787</v>
+        <v>0.0362565793456452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01522634418865101</v>
+        <v>0.01265756775443587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05758240969577734</v>
+        <v>0.05370393649263563</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1079877986285563</v>
+        <v>0.1115053676161795</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05874573664256137</v>
+        <v>0.05685846052181807</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05493911021556345</v>
+        <v>0.05301741198078816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02887498735768389</v>
+        <v>0.02832401072589111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08694725220220313</v>
+        <v>0.08871340488993941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.040209986688151</v>
+        <v>0.03976809460105631</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02669005099455213</v>
+        <v>0.02931850747987214</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0190127110657753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01522105483664728</v>
+        <v>0.01522105483664727</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03090417407033813</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004257281193791897</v>
+        <v>0.005642976721112265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007975717948388967</v>
+        <v>0.007919596220084297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008745281276063322</v>
+        <v>0.01034441657457523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005252225123442089</v>
+        <v>0.005091678433692349</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01890088464367467</v>
+        <v>0.01898884806473608</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006130627633731198</v>
+        <v>0.006382996311361774</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00579600687399666</v>
+        <v>0.005679565890784507</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0124222767330985</v>
+        <v>0.01228420298346381</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01366764346730337</v>
+        <v>0.01356169075664397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008987312769885287</v>
+        <v>0.01000014035583864</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009745627006836774</v>
+        <v>0.009824270173893672</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01116324813488899</v>
+        <v>0.01159636034823987</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02481730683393712</v>
+        <v>0.02618176134785417</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04055361179753505</v>
+        <v>0.03867016035812056</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03416569890640334</v>
+        <v>0.03551508757272717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03128229909507133</v>
+        <v>0.03220025725530783</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04809053534373778</v>
+        <v>0.04864892678116926</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02848434198230335</v>
+        <v>0.02875481891817233</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02686833842751463</v>
+        <v>0.02861909694810839</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03173426408906529</v>
+        <v>0.03352190201797141</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0323035651774344</v>
+        <v>0.03286393127948439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02813442976268144</v>
+        <v>0.02801720672027423</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02593660328135842</v>
+        <v>0.02558435973291547</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02768493164301455</v>
+        <v>0.02798649062604914</v>
       </c>
     </row>
     <row r="10">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003142687191460434</v>
+        <v>0.002905694613537799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01163096039055828</v>
+        <v>0.009565832257505257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02664294973884057</v>
+        <v>0.02659634256728807</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002749688253416342</v>
+        <v>0.002744083961557079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01155126192712384</v>
+        <v>0.0113421445010811</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008780612565714035</v>
+        <v>0.008309267290464594</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03219464333306151</v>
+        <v>0.03376922502744924</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001495811974671292</v>
+        <v>0.001460148398974588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01027222096425341</v>
+        <v>0.01035101804528947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01217164321959574</v>
+        <v>0.01155538225696545</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03461779790716311</v>
+        <v>0.035171731100921</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01812463381299061</v>
+        <v>0.01803971436717423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03183056730864908</v>
+        <v>0.03043037794220576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04693690673296149</v>
+        <v>0.04153847238419321</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07342246792754055</v>
+        <v>0.06963236816470941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02580742737969572</v>
+        <v>0.02280687490888682</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04398791434249803</v>
+        <v>0.04428260097977366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04044620844826006</v>
+        <v>0.04022170816754487</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07017696589005259</v>
+        <v>0.07247506118099104</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01323160437087653</v>
+        <v>0.01492287757413745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03102827416770489</v>
+        <v>0.0300481088943454</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0341666348671504</v>
+        <v>0.03398733130941846</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0640531780289378</v>
+        <v>0.06294527992382765</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008024115184633949</v>
+        <v>0.0079526913132621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01518023801751241</v>
+        <v>0.01563568809569168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01180923164849379</v>
+        <v>0.01257122716809117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002008940926338563</v>
+        <v>0.001968862224475251</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01839586721641093</v>
+        <v>0.01644925299867554</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01388167238634107</v>
+        <v>0.01346298789092908</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01262344593280234</v>
+        <v>0.01174885928928532</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008038506205310348</v>
+        <v>0.007335769869513535</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01632782239366805</v>
+        <v>0.0158110751728419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01959631276028959</v>
+        <v>0.01942611962346952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01551280916329126</v>
+        <v>0.01524058436156171</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007543370558473398</v>
+        <v>0.007221707111259441</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03714261368613938</v>
+        <v>0.03490354909565253</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05969848718770804</v>
+        <v>0.05993494741273355</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04745173385730277</v>
+        <v>0.04605422963161797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.041186027733781</v>
+        <v>0.03911704320188641</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05620164201616015</v>
+        <v>0.0543093178202828</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05282728964794813</v>
+        <v>0.05318079979561134</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04745835335416525</v>
+        <v>0.04740307997119653</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03691963880280135</v>
+        <v>0.03730782158110466</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03918098179388806</v>
+        <v>0.03962419734325472</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04726313416423572</v>
+        <v>0.04628727592703605</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03955178967057524</v>
+        <v>0.03957215668508519</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02743177905843206</v>
+        <v>0.02675987459067211</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02974389101031433</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02207087509510634</v>
+        <v>0.02207087509510633</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01453336017237091</v>
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02189669985399356</v>
+        <v>0.02245717363888485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004521490996267449</v>
+        <v>0.00441198965977976</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00943098910929841</v>
+        <v>0.008997926321516577</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02323728979466363</v>
+        <v>0.02644241047934055</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01047478224127708</v>
+        <v>0.0105091725981515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01154604559735411</v>
+        <v>0.01115835759960593</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00661679238599045</v>
+        <v>0.006609093429611799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0297496335430524</v>
+        <v>0.02937593372326426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01107493716103039</v>
+        <v>0.01179956811067421</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008367750603211165</v>
+        <v>0.008468374034772108</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0220428749049474</v>
+        <v>0.0220155630739712</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09509180654872637</v>
+        <v>0.1002166581421895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04439870628671728</v>
+        <v>0.04473003444315457</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02507953473666913</v>
+        <v>0.02533187417523063</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05746522912960257</v>
+        <v>0.05501834350371777</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08534723005436499</v>
+        <v>0.09515493037228168</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06265509118586886</v>
+        <v>0.06478023049528203</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03680237300489263</v>
+        <v>0.03687343209927317</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03227113431332533</v>
+        <v>0.03260356947593771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07458862605535174</v>
+        <v>0.07827585195430989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04026807835554562</v>
+        <v>0.0459468144664532</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02535195116846535</v>
+        <v>0.02407659475384699</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01350599645158932</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04387808313651501</v>
+        <v>0.043878083136515</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.0251016093210318</v>
@@ -1365,7 +1365,7 @@
         <v>0.01016159247993346</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04624978285156576</v>
+        <v>0.04624978285156574</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01970753569347449</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003626314410682813</v>
+        <v>0.003634408012245345</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003518424805848576</v>
+        <v>0.003505321057796974</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003670039901688397</v>
+        <v>0.00321015025238267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02655768315660253</v>
+        <v>0.02568868498938682</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.009424689966891267</v>
+        <v>0.0090644368564333</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003479396458325447</v>
+        <v>0.003542137930270113</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003202768614201303</v>
+        <v>0.003159918488544584</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02893224335213249</v>
+        <v>0.02932849261941956</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01031450601319821</v>
+        <v>0.01043663362271938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.006758131950720373</v>
+        <v>0.005367148041829619</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.005041908768265145</v>
+        <v>0.004934620771789658</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03178959330213731</v>
+        <v>0.03111684060411546</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03618767133272652</v>
+        <v>0.03248165706743893</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03424009481357477</v>
+        <v>0.03446088999342703</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03379532446505587</v>
+        <v>0.03172157195650776</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07002474310081157</v>
+        <v>0.06887927688814008</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05650036321525896</v>
+        <v>0.05347938084503232</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03874982804710939</v>
+        <v>0.03889658610303034</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02937985893114093</v>
+        <v>0.026954537239006</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07292527244996863</v>
+        <v>0.07305306687809549</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03566714688231119</v>
+        <v>0.03628627774933003</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02868611294805969</v>
+        <v>0.02893755695990979</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02225716814739737</v>
+        <v>0.02328699884680068</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06255648961338924</v>
+        <v>0.06167792047083392</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03247071087468962</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04802427439019258</v>
+        <v>0.04802427439019259</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.009064377719968937</v>
@@ -1501,7 +1501,7 @@
         <v>0.0277351890456234</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07022777028779741</v>
+        <v>0.07022777028779742</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01327799604467777</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009085038146127478</v>
+        <v>0.008837076870999104</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007555407269224031</v>
+        <v>0.007763562948266747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01980421910535093</v>
+        <v>0.02038012775370257</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03147145361700251</v>
+        <v>0.03167670502553237</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003179937791903975</v>
+        <v>0.003164162208765066</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01053064980874219</v>
+        <v>0.009495735144282738</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01576509764143634</v>
+        <v>0.01649861167119564</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0554642645232411</v>
+        <v>0.05506557268136049</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.007935355475027864</v>
+        <v>0.007695064777362688</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0104497166991139</v>
+        <v>0.01091646253339432</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02120494655338714</v>
+        <v>0.02076192335289541</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04819777519906032</v>
+        <v>0.04840241135473637</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03123869082726864</v>
+        <v>0.0311305358803144</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02763704101031515</v>
+        <v>0.02788728452363769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05096886248466221</v>
+        <v>0.05084993159648436</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06724800498681552</v>
+        <v>0.06885201230123954</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01909969505460198</v>
+        <v>0.0188355019954431</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03337414063151978</v>
+        <v>0.03197837838357711</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04499968721912086</v>
+        <v>0.04498950682160367</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08950169677530821</v>
+        <v>0.08933914364400433</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02089131548589179</v>
+        <v>0.02022751603107244</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02563359735690066</v>
+        <v>0.02649840375527745</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04129508496321942</v>
+        <v>0.04100997984041909</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07397766216275613</v>
+        <v>0.07280236139692585</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.0229062641920163</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.009265336782234125</v>
+        <v>0.009265336782234127</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03125838064162206</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02572293683359292</v>
+        <v>0.0257691936382384</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02686317014611641</v>
+        <v>0.02583870428461097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006235812376139576</v>
+        <v>0.006283330364415151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002322504612744835</v>
+        <v>0.002502011919827678</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01555045920572791</v>
+        <v>0.01510475201599253</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02196996097598105</v>
+        <v>0.02064885104629026</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01362547940518641</v>
+        <v>0.01346939222306066</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004959224465929527</v>
+        <v>0.004625445678079441</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02286957644631718</v>
+        <v>0.02307073120974303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02641664246936068</v>
+        <v>0.02725056779001686</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01267614469908289</v>
+        <v>0.0122288822979336</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.004874440756018249</v>
+        <v>0.005043795885809279</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05341187439805821</v>
+        <v>0.05331968429782828</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05700307257165005</v>
+        <v>0.05790819425061922</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02301349655157443</v>
+        <v>0.02376750326459106</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01972761939403688</v>
+        <v>0.02039018580882237</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03816409273462768</v>
+        <v>0.03737192000074009</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04750837991612373</v>
+        <v>0.04720406259180707</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0364140071151063</v>
+        <v>0.03767134513113139</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01568437208853871</v>
+        <v>0.01597724119412755</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04163738588518195</v>
+        <v>0.04091879200549969</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04588656374396637</v>
+        <v>0.04717869035561998</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02623242610022968</v>
+        <v>0.02598454953233736</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01482187551325851</v>
+        <v>0.01518081218444788</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.0203674935763462</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.02213235544410175</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="31">
@@ -2151,37 +2151,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9173</v>
+        <v>9216</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12449</v>
+        <v>13361</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3812</v>
+        <v>3900</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4210</v>
+        <v>4363</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4015</v>
+        <v>3909</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>24210</v>
+        <v>24991</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6995</v>
+        <v>7242</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5062</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4911</v>
+        <v>5555</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25846</v>
+        <v>26168</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11608</v>
+        <v>10651</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4855</v>
+        <v>4036</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15020</v>
+        <v>14008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30386</v>
+        <v>31376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16960</v>
+        <v>16415</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17364</v>
+        <v>16757</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15415</v>
+        <v>15121</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>49698</v>
+        <v>50708</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23421</v>
+        <v>23163</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16946</v>
+        <v>18614</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2099</v>
+        <v>2782</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4025</v>
+        <v>3996</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4395</v>
+        <v>5199</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2782</v>
+        <v>2697</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9525</v>
+        <v>9569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3205</v>
+        <v>3337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3032</v>
+        <v>2971</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6773</v>
+        <v>6698</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13627</v>
+        <v>13521</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9233</v>
+        <v>10274</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9996</v>
+        <v>10076</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11999</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12237</v>
+        <v>12910</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20465</v>
+        <v>19514</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17171</v>
+        <v>17849</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16569</v>
+        <v>17055</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24235</v>
+        <v>24517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14890</v>
+        <v>15031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14054</v>
+        <v>14970</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17302</v>
+        <v>18277</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32207</v>
+        <v>32766</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28904</v>
+        <v>28784</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26602</v>
+        <v>26241</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29758</v>
+        <v>30082</v>
       </c>
     </row>
     <row r="12">
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1015</v>
+        <v>939</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3705</v>
+        <v>3047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8406</v>
+        <v>8391</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3939</v>
+        <v>3868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2953</v>
+        <v>2794</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11474</v>
+        <v>12035</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6822</v>
+        <v>6874</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7971</v>
+        <v>7567</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>23259</v>
+        <v>23631</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10285</v>
+        <v>9833</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14952</v>
+        <v>13233</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23165</v>
+        <v>21969</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8656</v>
+        <v>7650</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15001</v>
+        <v>15101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13602</v>
+        <v>13527</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25010</v>
+        <v>25829</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8657</v>
+        <v>9763</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20607</v>
+        <v>19956</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22375</v>
+        <v>22257</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>43036</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2878</v>
+        <v>2852</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5677</v>
+        <v>5847</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4369</v>
+        <v>4651</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6833</v>
+        <v>6110</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5386</v>
+        <v>5223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4889</v>
+        <v>4550</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3389</v>
+        <v>3093</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11921</v>
+        <v>11544</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14932</v>
+        <v>14802</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11747</v>
+        <v>11541</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5995</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13322</v>
+        <v>12519</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22326</v>
+        <v>22415</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17555</v>
+        <v>17038</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15368</v>
+        <v>14596</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20876</v>
+        <v>20174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20496</v>
+        <v>20633</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18380</v>
+        <v>18358</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15566</v>
+        <v>15730</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28607</v>
+        <v>28931</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36012</v>
+        <v>35269</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29950</v>
+        <v>29966</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>21802</v>
+        <v>21268</v>
       </c>
     </row>
     <row r="20">
@@ -2871,37 +2871,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4656</v>
+        <v>4775</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1959</v>
+        <v>1869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5080</v>
+        <v>5780</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2290</v>
+        <v>2297</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2623</v>
+        <v>2535</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12828</v>
+        <v>12667</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4760</v>
+        <v>5072</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3622</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4481</v>
+        <v>4476</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20218</v>
+        <v>21308</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9378</v>
+        <v>9448</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5158</v>
+        <v>5210</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11934</v>
+        <v>11426</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18656</v>
+        <v>20800</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13696</v>
+        <v>14160</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8362</v>
+        <v>8378</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13263</v>
+        <v>13399</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>32163</v>
+        <v>33753</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>17308</v>
+        <v>19748</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>10974</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7189</v>
+        <v>6954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2621</v>
+        <v>2521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7631</v>
+        <v>7735</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5662</v>
+        <v>5729</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3738</v>
+        <v>2969</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2704</v>
+        <v>2646</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>16990</v>
+        <v>16631</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9800</v>
+        <v>8796</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9381</v>
+        <v>9442</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8892</v>
+        <v>8347</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18956</v>
+        <v>18646</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15715</v>
+        <v>14875</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10817</v>
+        <v>10858</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8024</v>
+        <v>7362</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19234</v>
+        <v>19268</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19580</v>
+        <v>19920</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>15867</v>
+        <v>16006</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11935</v>
+        <v>12487</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>33434</v>
+        <v>32964</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5588</v>
+        <v>5435</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4991</v>
+        <v>5129</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>13003</v>
+        <v>13381</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>22650</v>
+        <v>22797</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7307</v>
+        <v>6589</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>10898</v>
+        <v>11405</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>42822</v>
+        <v>42514</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9945</v>
+        <v>9644</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>14154</v>
+        <v>14786</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>28581</v>
+        <v>27984</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>71899</v>
+        <v>72204</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19213</v>
+        <v>19146</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18257</v>
+        <v>18422</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>33464</v>
+        <v>33386</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48398</v>
+        <v>49552</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12190</v>
+        <v>12021</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>23157</v>
+        <v>22188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>31108</v>
+        <v>31101</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>69100</v>
+        <v>68975</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26182</v>
+        <v>25350</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>34719</v>
+        <v>35891</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>55660</v>
+        <v>55275</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>110356</v>
+        <v>108602</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19106</v>
+        <v>19141</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>20872</v>
+        <v>20076</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4855</v>
+        <v>4892</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1854</v>
+        <v>1997</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12184</v>
+        <v>11835</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>18049</v>
+        <v>16963</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>11257</v>
+        <v>11128</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4116</v>
+        <v>3839</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>34906</v>
+        <v>35213</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>42227</v>
+        <v>43560</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>20342</v>
+        <v>19624</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>7936</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39673</v>
+        <v>39605</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>44290</v>
+        <v>44993</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17918</v>
+        <v>18505</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15744</v>
+        <v>16273</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>29902</v>
+        <v>29281</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>39029</v>
+        <v>38779</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>30084</v>
+        <v>31123</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>13018</v>
+        <v>13261</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>63551</v>
+        <v>62454</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>73349</v>
+        <v>75415</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>42096</v>
+        <v>41699</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>24131</v>
+        <v>24716</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
     </row>
     <row r="40">
